--- a/spliced/struggle/2023-04-06_18-06-23/data_selected.xlsx
+++ b/spliced/struggle/2023-04-06_18-06-23/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.1584005355834961</v>
+        <v>-0.1118526458740234</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0559865832328796</v>
+        <v>0.0269185900688171</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.2031860947608947</v>
+        <v>0.0618541836738586</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4257730841636657</v>
+        <v>-0.0058032199740409</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.438740372657776</v>
+        <v>0.0117591563612222</v>
       </c>
       <c r="H2" t="n">
-        <v>0.180816113948822</v>
+        <v>0.0122173046693205</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.1681756973266601</v>
+        <v>-0.188694953918457</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.045459896326065</v>
+        <v>-0.0127399563789367</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3079473972320556</v>
+        <v>0.0153613984584808</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2063197344541549</v>
+        <v>-0.0114537235349416</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5047274231910706</v>
+        <v>-0.0096211275085806</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1090394482016563</v>
+        <v>-0.0482583530247211</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7375173568725586</v>
+        <v>-0.0261173248291015</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8549392819404602</v>
+        <v>-0.1474769711494445</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.997310400009156</v>
+        <v>0.0655251443386077</v>
       </c>
       <c r="F4" t="n">
-        <v>1.435685992240906</v>
+        <v>0.0445931628346443</v>
       </c>
       <c r="G4" t="n">
-        <v>5.099197864532471</v>
+        <v>0.1122464910149574</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.6409503817558289</v>
+        <v>-0.0378736443817615</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.6316938400268555</v>
+        <v>-0.1960973739624023</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0533061251044273</v>
+        <v>0.0549294650554657</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.823783159255981</v>
+        <v>0.0360765755176544</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7269296646118164</v>
+        <v>0.0612392425537109</v>
       </c>
       <c r="G5" t="n">
-        <v>4.458247184753418</v>
+        <v>0.09758572280406951</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2814561724662781</v>
+        <v>-0.0021380283869802</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1245284080505371</v>
+        <v>-0.06610202789306641</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4134435057640075</v>
+        <v>-0.1787786185741424</v>
       </c>
       <c r="E6" t="n">
-        <v>2.055456638336182</v>
+        <v>0.0745508223772049</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2370157092809677</v>
+        <v>0.0088575463742017</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7996225953102112</v>
+        <v>0.1237002089619636</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1328631937503814</v>
+        <v>0.0548251569271087</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.905292510986328</v>
+        <v>0.0234136581420898</v>
       </c>
       <c r="D7" t="n">
-        <v>1.267569422721863</v>
+        <v>0.0270741879940032</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3008813858032226</v>
+        <v>0.2239813506603241</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2102903574705124</v>
+        <v>-0.0221438650041818</v>
       </c>
       <c r="G7" t="n">
-        <v>1.452026724815369</v>
+        <v>0.0061086523346602</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2237294018268585</v>
+        <v>0.0325285755097866</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2.353589773178101</v>
+        <v>0.11651611328125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5766786336898804</v>
+        <v>-0.4856438636779785</v>
       </c>
       <c r="E8" t="n">
-        <v>2.404436111450196</v>
+        <v>0.5658785104751587</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3715587854385376</v>
+        <v>0.0332921557128429</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4751004576683044</v>
+        <v>-0.0615446716547012</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1111774742603302</v>
+        <v>0.093156948685646</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-11.09067344665527</v>
+        <v>0.0557413101196289</v>
       </c>
       <c r="D9" t="n">
-        <v>1.405970811843872</v>
+        <v>0.3574482798576355</v>
       </c>
       <c r="E9" t="n">
-        <v>10.02403450012207</v>
+        <v>0.2321825623512268</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1693623960018158</v>
+        <v>-0.4489859640598297</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.752572417259216</v>
+        <v>-1.353219270706177</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1539380401372909</v>
+        <v>0.4497495293617248</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.286171913146973</v>
+        <v>0.3619680404663086</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2758489847183227</v>
+        <v>0.0124948024749755</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.509784698486328</v>
+        <v>0.3587799966335296</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.307862520217896</v>
+        <v>-0.3888157308101654</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.349499702453613</v>
+        <v>-3.63083028793335</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.575574159622192</v>
+        <v>-0.1369865238666534</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1.000519752502441</v>
+        <v>-0.2529764175415039</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.010628342628479</v>
+        <v>0.1160029470920562</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.670511245727539</v>
+        <v>-0.09882223606109609</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3645338416099548</v>
+        <v>-0.6565274000167847</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.762179851531982</v>
+        <v>-2.371837139129639</v>
       </c>
       <c r="H11" t="n">
-        <v>0.608421802520752</v>
+        <v>0.1600466966629028</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-2.810617446899414</v>
+        <v>-0.1584005355834961</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8466755151748657</v>
+        <v>0.0559865832328796</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6261429786682129</v>
+        <v>-0.2031860947608947</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3593414723873138</v>
+        <v>-0.4257730841636657</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.416888236999512</v>
+        <v>-1.438740372657776</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.4506658315658569</v>
+        <v>0.180816113948822</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.552617073059082</v>
+        <v>-0.1681756973266601</v>
       </c>
       <c r="D13" t="n">
-        <v>1.007189750671387</v>
+        <v>-0.045459896326065</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.683732509613037</v>
+        <v>0.3079473972320556</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3178026378154754</v>
+        <v>-0.2063197344541549</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.223715782165527</v>
+        <v>0.5047274231910706</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.2168571650981903</v>
+        <v>-0.1090394482016563</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-2.832679748535156</v>
+        <v>0.7375173568725586</v>
       </c>
       <c r="D14" t="n">
-        <v>5.107204437255859</v>
+        <v>-0.8549392819404602</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.522222995758057</v>
+        <v>-2.997310400009156</v>
       </c>
       <c r="F14" t="n">
-        <v>0.042302418500185</v>
+        <v>1.435685992240906</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5458080768585205</v>
+        <v>5.099197864532471</v>
       </c>
       <c r="H14" t="n">
-        <v>0.195171445608139</v>
+        <v>-0.6409503817558289</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.8469958305358887</v>
+        <v>-0.6316938400268555</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.08077871799469</v>
+        <v>0.0533061251044273</v>
       </c>
       <c r="E15" t="n">
-        <v>7.442714691162109</v>
+        <v>-1.823783159255981</v>
       </c>
       <c r="F15" t="n">
-        <v>1.255175352096558</v>
+        <v>0.7269296646118164</v>
       </c>
       <c r="G15" t="n">
-        <v>4.058435916900635</v>
+        <v>4.458247184753418</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6265950202941895</v>
+        <v>0.2814561724662781</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-3.03963303565979</v>
+        <v>0.1245284080505371</v>
       </c>
       <c r="D16" t="n">
-        <v>1.802032470703125</v>
+        <v>0.4134435057640075</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.227274417877197</v>
+        <v>2.055456638336182</v>
       </c>
       <c r="F16" t="n">
-        <v>1.706299304962158</v>
+        <v>0.2370157092809677</v>
       </c>
       <c r="G16" t="n">
-        <v>4.895015716552734</v>
+        <v>0.7996225953102112</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.6637051105499268</v>
+        <v>0.1328631937503814</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1.961796522140503</v>
+        <v>-1.905292510986328</v>
       </c>
       <c r="D17" t="n">
-        <v>1.68219518661499</v>
+        <v>1.267569422721863</v>
       </c>
       <c r="E17" t="n">
-        <v>1.394426345825195</v>
+        <v>0.3008813858032226</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3026837408542633</v>
+        <v>0.2102903574705124</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5484042763710022</v>
+        <v>1.452026724815369</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1058324053883552</v>
+        <v>0.2237294018268585</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-2.372189998626709</v>
+        <v>-2.353589773178101</v>
       </c>
       <c r="D18" t="n">
-        <v>1.225671410560608</v>
+        <v>0.5766786336898804</v>
       </c>
       <c r="E18" t="n">
-        <v>2.504203796386719</v>
+        <v>2.404436111450196</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2704605758190155</v>
+        <v>-0.3715587854385376</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6455318331718445</v>
+        <v>0.4751004576683044</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.1504255682229995</v>
+        <v>0.1111774742603302</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-8.473310470581055</v>
+        <v>-11.09067344665527</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.7327957153320312</v>
+        <v>1.405970811843872</v>
       </c>
       <c r="E19" t="n">
-        <v>5.200639724731445</v>
+        <v>10.02403450012207</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4751004576683044</v>
+        <v>0.1693623960018158</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1533271819353103</v>
+        <v>-1.752572417259216</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.3729332387447357</v>
+        <v>0.1539380401372909</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.173869132995605</v>
+        <v>4.286171913146973</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.535699486732483</v>
+        <v>0.2758489847183227</v>
       </c>
       <c r="E20" t="n">
-        <v>-6.114311695098877</v>
+        <v>-4.509784698486328</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.3394883573055267</v>
+        <v>-1.307862520217896</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.6884451508522034</v>
+        <v>-5.349499702453613</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.1850921660661697</v>
+        <v>-1.575574159622192</v>
       </c>
     </row>
     <row r="21">
@@ -1017,21 +1017,301 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-1.000519752502441</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.010628342628479</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1.670511245727539</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.3645338416099548</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-2.762179851531982</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.608421802520752</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.810617446899414</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8466755151748657</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.6261429786682129</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.3593414723873138</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-2.416888236999512</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.4506658315658569</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.552617073059082</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.007189750671387</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-2.683732509613037</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.3178026378154754</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-1.223715782165527</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.2168571650981903</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.832679748535156</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5.107204437255859</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-6.522222995758057</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.042302418500185</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5458080768585205</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.195171445608139</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8469958305358887</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-1.08077871799469</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7.442714691162109</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.255175352096558</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4.058435916900635</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.6265950202941895</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.03963303565979</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.802032470703125</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-2.227274417877197</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.706299304962158</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4.895015716552734</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.6637051105499268</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.961796522140503</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.68219518661499</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.394426345825195</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.3026837408542633</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.5484042763710022</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1058324053883552</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.372189998626709</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.225671410560608</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.504203796386719</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.2704605758190155</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.6455318331718445</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.1504255682229995</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-8.473310470581055</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.7327957153320312</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5.200639724731445</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.4751004576683044</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.1533271819353103</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.3729332387447357</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>3.173869132995605</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-1.535699486732483</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-6.114311695098877</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.3394883573055267</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.6884451508522034</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.1850921660661697</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>-4.002721786499023</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D31" t="n">
         <v>1.022015571594239</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E31" t="n">
         <v>-0.0432633161544799</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F31" t="n">
         <v>-0.2115120887756347</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G31" t="n">
         <v>-0.2267837226390838</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H31" t="n">
         <v>-0.3090978264808655</v>
       </c>
     </row>
